--- a/biology/Médecine/Andrew_Clark/Andrew_Clark.xlsx
+++ b/biology/Médecine/Andrew_Clark/Andrew_Clark.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Andrew Clark, né le 28 octobre 1826 à Aberdeen et mort le 6 novembre 1893 à Londres, 1er baronnet Clark de Cavendish Square, est un médecin et pathologiste écossais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, médecin, meurt alors qu'Andrew n'a que 3 ans. Après sa scolarité primaire à Aberdeen, il est envoyé par ses tuteurs à Dundee où il est inscrit au collège (High School). Il est ensuite apprenti chez un pharmacien. De retour à Aberdeen, il commence ses études de médecine dans cette ville et les poursuit à Édimbourg, où ses résultats brillants lui permettent de devenir assistant du docteur John Hughes Bennett au département de pathologie de l'Infirmerie Royale d'Édimbourg (Edinburgh Royal Infirmary) et assistant-démonstrateur d'anatomie de Robert Knox. Mais il se sait atteint d'une tuberculose, en ayant appris les symptômes de son oncle Homer Webb. Ceci met fin à sa carrière universitaire et il rejoint le corps des médecins de la Royal Navy en 1848 dans l'espoir que la vie en mer lui sera bénéfique.
 L'année suivante, il est nommé pathologiste au Haslar Hospital où il a comme collègue Thomas Henry Huxley. En 1853, sa candidature est retenue au poste nouvellement créé de conservateur au musée du London Hospital où il manifeste l'intention de consacrer toute son énergie à la pathologie. Cependant, les circonstances l'amèneneront à pratiquer plus activement la médecine. En effet, en 1854, l'année d'obtention de son doctorat à Aberdeen, une place d'assistant au London Hospital devient vacante et il se décide à faire acte de candidature à ce poste. Clark se plaisait à raconter comment sa tuberculose lui avait valu sa nomination : « Ce n'est qu'un pauvre médecin écossais », disait-on, « il ne lui reste que quelques mois à vivre, laissons-lui la place ». Il fut donc nommé et deux ans avant sa mort (survenue 39 ans plus tard) Clark fit une déclaration en public pour faire remarquer qu'il était le seul à être encore en vie parmi les membres du personnel en place au moment de sa sélection.
